--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/33.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/33.xlsx
@@ -479,13 +479,13 @@
         <v>0.1744798524054161</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.825796744775104</v>
+        <v>-1.797880728649275</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03880519454714673</v>
+        <v>0.04243173460262352</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.07069301964525691</v>
+        <v>-0.07837423295720428</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.1817238321527083</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.852065549890491</v>
+        <v>-1.839255395271785</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01138578145408875</v>
+        <v>0.01976900729413621</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06335494250175311</v>
+        <v>-0.06261357949562048</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.2004623882483046</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.951787531320496</v>
+        <v>-1.940020951379213</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01101723269938394</v>
+        <v>-0.01730543908898019</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.05575715220323469</v>
+        <v>-0.06592059366947323</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.223966940692174</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.011157171547276</v>
+        <v>-1.98525353886803</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03380273349933269</v>
+        <v>-0.03719474470573568</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.05493866226015833</v>
+        <v>-0.06194462136906769</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.2462785362440535</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.987608271473496</v>
+        <v>-1.944708380322446</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02653076515892352</v>
+        <v>-0.02173158085807772</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.06466137837243267</v>
+        <v>-0.07804998501821633</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.2637932270579059</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.869045281161522</v>
+        <v>-1.818080903042488</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01421271979594479</v>
+        <v>0.01935661428435543</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06503442090418095</v>
+        <v>-0.06852087325786196</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.2770281615642541</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.61114933122245</v>
+        <v>-1.548867755621264</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05646254104989785</v>
+        <v>0.05647985526023216</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06304013867749297</v>
+        <v>-0.06434657454817254</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2875462551341934</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.224521440438241</v>
+        <v>-1.145523781768841</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05927216518141958</v>
+        <v>0.05033488461067427</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05010170150040132</v>
+        <v>-0.04945635366066804</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.299819352841145</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7224864676802653</v>
+        <v>-0.6400991588331446</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05694576492013716</v>
+        <v>0.04459286285616936</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01585576747826225</v>
+        <v>-0.02038107245200173</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.3208335546259278</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2128914810826824</v>
+        <v>-0.1326448382405307</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.03482112387081424</v>
+        <v>-0.05022447499186277</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02326490376254504</v>
+        <v>0.01823591266998935</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3611469408073767</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3662090418732963</v>
+        <v>0.452271685368654</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.22772503728182</v>
+        <v>-0.2308793716009066</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08691351497058096</v>
+        <v>0.07905758553616922</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4311973560942968</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9337137659626528</v>
+        <v>1.032621979506945</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5271695829563054</v>
+        <v>-0.5141319825745719</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1800450783397</v>
+        <v>0.1702169029462985</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5415360382302723</v>
       </c>
       <c r="E14" t="n">
-        <v>1.511218233529632</v>
+        <v>1.621352351447042</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8472865087603935</v>
+        <v>-0.8251912153451351</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2977943007659619</v>
+        <v>0.27522286656651</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6936221157136634</v>
       </c>
       <c r="E15" t="n">
-        <v>2.171516106877029</v>
+        <v>2.303773063544319</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.188038038235173</v>
+        <v>-1.162819103873693</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4168562551393885</v>
+        <v>0.3972455509071033</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8738907805207867</v>
       </c>
       <c r="E16" t="n">
-        <v>2.697268399754763</v>
+        <v>2.84595496801019</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.538248635619409</v>
+        <v>-1.512061679498329</v>
       </c>
       <c r="G16" t="n">
-        <v>0.53459288541268</v>
+        <v>0.5241634347149416</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.063011112002392</v>
       </c>
       <c r="E17" t="n">
-        <v>3.195152684089869</v>
+        <v>3.34429256985223</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.879574682073463</v>
+        <v>-1.853327126216213</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6675156521682805</v>
+        <v>0.6452322634680266</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.243577081123732</v>
       </c>
       <c r="E18" t="n">
-        <v>3.623007283699185</v>
+        <v>3.757124730967853</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.207749011759489</v>
+        <v>-2.164767271614132</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8146628297230752</v>
+        <v>0.7994341947244911</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.405952457129987</v>
       </c>
       <c r="E19" t="n">
-        <v>3.981660132640517</v>
+        <v>4.105244243949441</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.569837944442621</v>
+        <v>-2.518952267279651</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9598110029938182</v>
+        <v>0.9431563066713357</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.542943024104372</v>
       </c>
       <c r="E20" t="n">
-        <v>4.286446899212698</v>
+        <v>4.41663716877372</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.905761957272371</v>
+        <v>-2.84185284589976</v>
       </c>
       <c r="G20" t="n">
-        <v>1.093467262659945</v>
+        <v>1.065218341489961</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.650720159566959</v>
       </c>
       <c r="E21" t="n">
-        <v>4.528104480886871</v>
+        <v>4.635088986542558</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.187002184799453</v>
+        <v>-3.115225338849021</v>
       </c>
       <c r="G21" t="n">
-        <v>1.21165563642105</v>
+        <v>1.174499341043626</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.728443898449169</v>
       </c>
       <c r="E22" t="n">
-        <v>4.696862940977124</v>
+        <v>4.802937663580699</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.423271899021414</v>
+        <v>-3.333668499512691</v>
       </c>
       <c r="G22" t="n">
-        <v>1.307921071860678</v>
+        <v>1.260325881670788</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.777351917877993</v>
       </c>
       <c r="E23" t="n">
-        <v>4.814909653017311</v>
+        <v>4.915786964482352</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.563250206488245</v>
+        <v>-3.473546069755758</v>
       </c>
       <c r="G23" t="n">
-        <v>1.390376063530015</v>
+        <v>1.337734568037235</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.804512701127114</v>
       </c>
       <c r="E24" t="n">
-        <v>4.884168068373663</v>
+        <v>4.985517585575093</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.683250276257967</v>
+        <v>-3.589430866532839</v>
       </c>
       <c r="G24" t="n">
-        <v>1.45487149702531</v>
+        <v>1.399297603909547</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.818636062236377</v>
       </c>
       <c r="E25" t="n">
-        <v>4.889648802954032</v>
+        <v>4.97978972999268</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.784029211527925</v>
+        <v>-3.690990515286963</v>
       </c>
       <c r="G25" t="n">
-        <v>1.494593443570455</v>
+        <v>1.438523734431482</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.830135486405991</v>
       </c>
       <c r="E26" t="n">
-        <v>4.889746392139553</v>
+        <v>4.968776318200939</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.797389485829526</v>
+        <v>-3.709075207981147</v>
       </c>
       <c r="G26" t="n">
-        <v>1.523977232526896</v>
+        <v>1.463564804632254</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.841654527724162</v>
       </c>
       <c r="E27" t="n">
-        <v>4.861390437669321</v>
+        <v>4.927239527608935</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.735546274553621</v>
+        <v>-3.662857284522395</v>
       </c>
       <c r="G27" t="n">
-        <v>1.517145989540451</v>
+        <v>1.459264584392861</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.853927731079662</v>
       </c>
       <c r="E28" t="n">
-        <v>4.712392213627877</v>
+        <v>4.776575991337155</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.659894980536107</v>
+        <v>-3.593576045888785</v>
       </c>
       <c r="G28" t="n">
-        <v>1.47413591705091</v>
+        <v>1.41200780831405</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.863830604292749</v>
       </c>
       <c r="E29" t="n">
-        <v>4.590232589623731</v>
+        <v>4.648507499551646</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.567756623232529</v>
+        <v>-3.504281154127836</v>
       </c>
       <c r="G29" t="n">
-        <v>1.425772605529825</v>
+        <v>1.367492973544545</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.868769434557756</v>
       </c>
       <c r="E30" t="n">
-        <v>4.453994938598671</v>
+        <v>4.497442588403933</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.455397629287161</v>
+        <v>-3.376854862143817</v>
       </c>
       <c r="G30" t="n">
-        <v>1.371517740437711</v>
+        <v>1.31485777412825</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.866693745450697</v>
       </c>
       <c r="E31" t="n">
-        <v>4.306627398366894</v>
+        <v>4.34247883189276</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.337743635017738</v>
+        <v>-3.255449980308335</v>
       </c>
       <c r="G31" t="n">
-        <v>1.293547129244961</v>
+        <v>1.249524962460423</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.853763453334475</v>
       </c>
       <c r="E32" t="n">
-        <v>4.162440950779265</v>
+        <v>4.20495835528384</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.203756831336138</v>
+        <v>-3.116607327637523</v>
       </c>
       <c r="G32" t="n">
-        <v>1.227894791695509</v>
+        <v>1.179910818782657</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.8283052534493</v>
       </c>
       <c r="E33" t="n">
-        <v>3.961652775589664</v>
+        <v>4.000417718509058</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.090964195122853</v>
+        <v>-2.993051548672783</v>
       </c>
       <c r="G33" t="n">
-        <v>1.154408560979344</v>
+        <v>1.110139273192762</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.785867263473974</v>
       </c>
       <c r="E34" t="n">
-        <v>3.702529877745539</v>
+        <v>3.744712016177276</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.008428141468769</v>
+        <v>-2.914789743942591</v>
       </c>
       <c r="G34" t="n">
-        <v>1.094002429161187</v>
+        <v>1.051230033558962</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.72712369778423</v>
       </c>
       <c r="E35" t="n">
-        <v>3.462076420699161</v>
+        <v>3.50374070683999</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.926681458404018</v>
+        <v>-2.822497132765125</v>
       </c>
       <c r="G35" t="n">
-        <v>1.006099757313029</v>
+        <v>0.9551204260123421</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.651733580649275</v>
       </c>
       <c r="E36" t="n">
-        <v>3.212825770783833</v>
+        <v>3.243920518525128</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.84677873873987</v>
+        <v>-2.758015865441921</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9322452061224792</v>
+        <v>0.8832333987234184</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.566228376483528</v>
       </c>
       <c r="E37" t="n">
-        <v>2.957538757538317</v>
+        <v>2.996878217436985</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.746680566739874</v>
+        <v>-2.659863968085414</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8695205441386469</v>
+        <v>0.830731990932434</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.476763834271021</v>
       </c>
       <c r="E38" t="n">
-        <v>2.683808962248521</v>
+        <v>2.70893030742448</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.646581607730317</v>
+        <v>-2.572382346352203</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8065660753631045</v>
+        <v>0.7637055346900868</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.38584280421137</v>
       </c>
       <c r="E39" t="n">
-        <v>2.43283633541449</v>
+        <v>2.453314324182612</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.543652562340662</v>
+        <v>-2.45754742032903</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7369267473793982</v>
+        <v>0.6941984243125697</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.296137050361962</v>
       </c>
       <c r="E40" t="n">
-        <v>2.20006566569918</v>
+        <v>2.217762362679964</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.452035992375795</v>
+        <v>-2.360698023795398</v>
       </c>
       <c r="G40" t="n">
-        <v>0.675653331025405</v>
+        <v>0.6423045879024073</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.206775507993893</v>
       </c>
       <c r="E41" t="n">
-        <v>1.997295800435862</v>
+        <v>2.016986779643334</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.3514058019128</v>
+        <v>-2.266083734414014</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6098042410857908</v>
+        <v>0.5777068431642272</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.118598101879482</v>
       </c>
       <c r="E42" t="n">
-        <v>1.757793050938749</v>
+        <v>1.762200304478391</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.251354850486443</v>
+        <v>-2.168584267983285</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5372624218424059</v>
+        <v>0.5081462161365858</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.030741165285739</v>
       </c>
       <c r="E43" t="n">
-        <v>1.540520173491766</v>
+        <v>1.545270563199852</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.170686370519783</v>
+        <v>-2.086800595469184</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4825589613007218</v>
+        <v>0.4549239075880457</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.9448716007693272</v>
       </c>
       <c r="E44" t="n">
-        <v>1.321005892816051</v>
+        <v>1.313447452995565</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.081975439852836</v>
+        <v>-1.998219521379745</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4249656016523297</v>
+        <v>0.4091183771390743</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8613094832578239</v>
       </c>
       <c r="E45" t="n">
-        <v>1.108577846224431</v>
+        <v>1.103156924370672</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.999483458734149</v>
+        <v>-1.920056092844635</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3633695113784698</v>
+        <v>0.350440518316106</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.7817733825828962</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9135600251335187</v>
+        <v>0.9026504986037837</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.931695964246653</v>
+        <v>-1.853265739470483</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2956819671051764</v>
+        <v>0.2809711843975001</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7064797846343676</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7565217114204704</v>
+        <v>0.7413277048425549</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.877079074756641</v>
+        <v>-1.806760557522093</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2529741062869248</v>
+        <v>0.2436370248593691</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6356739076917903</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5935981402128788</v>
+        <v>0.5812546822636389</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.81416316944957</v>
+        <v>-1.73948461924902</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2034035220998023</v>
+        <v>0.2001311363466181</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5709558110965768</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4696189501045089</v>
+        <v>0.4528855528259613</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.764652397989057</v>
+        <v>-1.691546292890686</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1572359672529318</v>
+        <v>0.1447539956210173</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.511703980443307</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3568546462354063</v>
+        <v>0.3554159927585375</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.708203350241851</v>
+        <v>-1.627265713005448</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1173125462602611</v>
+        <v>0.1128864044911636</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.459088367510839</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2293118768364116</v>
+        <v>0.2238500304854982</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.650061444929685</v>
+        <v>-1.577622723938745</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08134463531941911</v>
+        <v>0.07559474346930771</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4128071165205719</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1219779389357964</v>
+        <v>0.1171630144437376</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.612449471016645</v>
+        <v>-1.532028112052028</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04803052061709006</v>
+        <v>0.04585365217233121</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3727781714059131</v>
       </c>
       <c r="E53" t="n">
-        <v>0.03802290704386029</v>
+        <v>0.02377960801521036</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.583603209590127</v>
+        <v>-1.516278476724294</v>
       </c>
       <c r="G53" t="n">
-        <v>0.008225151058516969</v>
+        <v>0.006640113803367177</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3379687113550137</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.05065260819285656</v>
+        <v>-0.06894900645885575</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.567147626686489</v>
+        <v>-1.498167812714608</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01125490958670034</v>
+        <v>-0.01454933160758268</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3079394367731388</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1233030347556111</v>
+        <v>-0.1408344597286582</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.556417538336583</v>
+        <v>-1.484508474779961</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04079767447439295</v>
+        <v>-0.04436282778413901</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2810339973730849</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.184475713885841</v>
+        <v>-0.2122099308031591</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.560785441398192</v>
+        <v>-1.490536181004982</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07460917921905302</v>
+        <v>-0.07442659300098214</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2560104986218733</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2437154975351137</v>
+        <v>-0.2663010979066573</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.559336556797035</v>
+        <v>-1.486290264425273</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.0978841999657263</v>
+        <v>-0.1112728066115099</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2340532724648312</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3226840368507692</v>
+        <v>-0.3524849408743552</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.558311870349068</v>
+        <v>-1.485570150677278</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1209797825325713</v>
+        <v>-0.1304538036236801</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.214023620414879</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3941744113211252</v>
+        <v>-0.4275861152089749</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.57220731115191</v>
+        <v>-1.507540309572393</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1456241999147762</v>
+        <v>-0.1536611415481375</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1960962919777907</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4722803881583079</v>
+        <v>-0.4925144039626282</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.584923024623338</v>
+        <v>-1.522884634976393</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1728893591339467</v>
+        <v>-0.1879952206410694</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1803371301578184</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5411531688299408</v>
+        <v>-0.5656149999940748</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.610792815891475</v>
+        <v>-1.552894096533551</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1966759360950427</v>
+        <v>-0.2095545605455249</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1656068025800709</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5943502930725402</v>
+        <v>-0.6211290803832288</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.646161025547102</v>
+        <v>-1.579185724926197</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2121800244398545</v>
+        <v>-0.22120230204315</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1517275839160558</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6444702099329966</v>
+        <v>-0.6743088904154938</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.688365200246537</v>
+        <v>-1.625038475948807</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2435565216038623</v>
+        <v>-0.2554057375490139</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1383085384242836</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6970928171963212</v>
+        <v>-0.7314143041362827</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.726629605085357</v>
+        <v>-1.66782031566576</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2689737823746259</v>
+        <v>-0.2752415265156452</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1261961313678877</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.7660679091108387</v>
+        <v>-0.8097217554209919</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.77148127994682</v>
+        <v>-1.712369778855934</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2887009640218874</v>
+        <v>-0.3044679135599564</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1158945637397571</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8274137303444117</v>
+        <v>-0.8891876847789785</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.810554730613988</v>
+        <v>-1.75139207390166</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3132273299699947</v>
+        <v>-0.3230067107706359</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1078769791398582</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.8811475951073745</v>
+        <v>-0.9416072435756553</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.844867560448783</v>
+        <v>-1.780034499851968</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3352163770945653</v>
+        <v>-0.3472198469136044</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1015665024781089</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9060139491856828</v>
+        <v>-0.9886468050157263</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.880879543925021</v>
+        <v>-1.812474246932415</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3562610127463555</v>
+        <v>-0.3732462530843112</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.09659383662112309</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.9222436603454142</v>
+        <v>-1.013735882799699</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.930629566291972</v>
+        <v>-1.846266863447619</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3763643849636079</v>
+        <v>-0.3912860862335384</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.09197533613481437</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.9200077661836066</v>
+        <v>-1.011199350985723</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.958093838929987</v>
+        <v>-1.879591209274237</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3931245405672176</v>
+        <v>-0.4170968517846271</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.08670658733286943</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9359683200735955</v>
+        <v>-1.012143762458503</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.985711578432329</v>
+        <v>-1.904644084618419</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4019894162583831</v>
+        <v>-0.4268054017248097</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.0803502361657093</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9285901054424985</v>
+        <v>-1.01805735229723</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.026812365727733</v>
+        <v>-1.94885198565927</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4078557855234707</v>
+        <v>-0.431518014973984</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.07185563456353142</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8876656082886807</v>
+        <v>-0.9827261320909538</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.057283014887432</v>
+        <v>-1.966559700773903</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4207344099739529</v>
+        <v>-0.4437607356994607</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.06049731527500009</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8395399736549122</v>
+        <v>-0.9277889297097566</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.090769484683543</v>
+        <v>-2.006594090114625</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4163964132756483</v>
+        <v>-0.4458762173984889</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.04518109564499917</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7786836723680637</v>
+        <v>-0.8696690606652893</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.119382004270547</v>
+        <v>-2.030719081186801</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4242303064423618</v>
+        <v>-0.4522226624955732</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.02601888862098343</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.6920166055301266</v>
+        <v>-0.7786742282533359</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.141800758615233</v>
+        <v>-2.06621163835301</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4189116958314868</v>
+        <v>-0.442976874177053</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.003276096558017506</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5901870124966998</v>
+        <v>-0.6868727110417159</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.129470679828524</v>
+        <v>-2.063096654511956</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4082917888200711</v>
+        <v>-0.427225664830197</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.02071192783439096</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4806998164381453</v>
+        <v>-0.5744783016661189</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.126727951509658</v>
+        <v>-2.070775506795222</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4003508623531091</v>
+        <v>-0.4191918712350783</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.04297216232066681</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3241982432454605</v>
+        <v>-0.4166655705453907</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.105629799207743</v>
+        <v>-2.055712930813935</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3764619741491285</v>
+        <v>-0.3935385075961197</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.06262799187969112</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1799252246061608</v>
+        <v>-0.2785359485365275</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.072429013882148</v>
+        <v>-2.022664825343105</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3556298310787139</v>
+        <v>-0.374621945796328</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.07749333064825145</v>
       </c>
       <c r="E81" t="n">
-        <v>0.01666818962517386</v>
+        <v>-0.07627606546851046</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.043548124034962</v>
+        <v>-1.986714228612597</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.32627909652382</v>
+        <v>-0.3493652349759372</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.08718115645096527</v>
       </c>
       <c r="E82" t="n">
-        <v>0.183954941837011</v>
+        <v>0.09760582686157653</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.001484037037323</v>
+        <v>-1.942937608810983</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2980034170287744</v>
+        <v>-0.3326381337738748</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.09226368409316872</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3957502327418676</v>
+        <v>0.3016884240720598</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.939191443302287</v>
+        <v>-1.88686789967201</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2641494137678392</v>
+        <v>-0.2913642043751282</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.09383513767660719</v>
       </c>
       <c r="E84" t="n">
-        <v>0.59332111284753</v>
+        <v>0.5182498448762149</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.85202777343158</v>
+        <v>-1.808163795568733</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2284475120584971</v>
+        <v>-0.263148337606692</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.0931542481393601</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7699732788311061</v>
+        <v>0.7039022521953885</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.735120651235214</v>
+        <v>-1.692813378283333</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1977793234990745</v>
+        <v>-0.2399520178160838</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.09175819102084783</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9892703448680819</v>
+        <v>0.9160595674981442</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.636892413951323</v>
+        <v>-1.605450594993781</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1642794745404319</v>
+        <v>-0.2059988513505066</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.09068083818194626</v>
       </c>
       <c r="E87" t="n">
-        <v>1.19268083591377</v>
+        <v>1.130428379666327</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.505845877988313</v>
+        <v>-1.489063686117005</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1322639256131759</v>
+        <v>-0.1652175899367271</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.09082768386609159</v>
       </c>
       <c r="E88" t="n">
-        <v>1.353100142699372</v>
+        <v>1.303746773150989</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.356585579763172</v>
+        <v>-1.331236788824185</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1016917522201527</v>
+        <v>-0.1400175438047031</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.09263622138325477</v>
       </c>
       <c r="E89" t="n">
-        <v>1.481544825054872</v>
+        <v>1.438870018638168</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.176303725685876</v>
+        <v>-1.149221152684777</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.07425345089763907</v>
+        <v>-0.112283326887385</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.09683163368154467</v>
       </c>
       <c r="E90" t="n">
-        <v>1.594268204426821</v>
+        <v>1.555156977300741</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9886090285568151</v>
+        <v>-0.9646807898748021</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.05337880931094935</v>
+        <v>-0.08576740076995361</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1052813706197539</v>
       </c>
       <c r="E91" t="n">
-        <v>1.67773056833379</v>
+        <v>1.628295349791099</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.789421630813577</v>
+        <v>-0.7713849457025924</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.05546595866579406</v>
+        <v>-0.08958911919647167</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1198554361854703</v>
       </c>
       <c r="E92" t="n">
-        <v>1.726062399472449</v>
+        <v>1.695172274216923</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5756336317011537</v>
+        <v>-0.5713648918441862</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.05092963555820548</v>
+        <v>-0.08266186104362734</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1420446496856776</v>
       </c>
       <c r="E93" t="n">
-        <v>1.727257079985516</v>
+        <v>1.707082876907805</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4001399437908548</v>
+        <v>-0.4002957716838635</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.05995348718062232</v>
+        <v>-0.08544000479272305</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1708676843022573</v>
       </c>
       <c r="E94" t="n">
-        <v>1.711798638195222</v>
+        <v>1.694668588098106</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2135147926547174</v>
+        <v>-0.2160001688472512</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.0862222922960095</v>
+        <v>-0.101819247768978</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2049648949035929</v>
       </c>
       <c r="E95" t="n">
-        <v>1.677110404799997</v>
+        <v>1.663140985098454</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07700168828343007</v>
+        <v>-0.07326968894682614</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08970244857320532</v>
+        <v>-0.1081420825792429</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2414999663464079</v>
       </c>
       <c r="E96" t="n">
-        <v>1.605234395644923</v>
+        <v>1.606484166827235</v>
       </c>
       <c r="F96" t="n">
-        <v>0.04145899078565969</v>
+        <v>0.02967116158623884</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1088519652029495</v>
+        <v>-0.1181843245731413</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2776660128137118</v>
       </c>
       <c r="E97" t="n">
-        <v>1.500974517088208</v>
+        <v>1.517648101640146</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1054224058179557</v>
+        <v>0.09218647902693826</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1342534857825</v>
+        <v>-0.1385725942513491</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3084996785582115</v>
       </c>
       <c r="E98" t="n">
-        <v>1.377310130804098</v>
+        <v>1.381563130469852</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1514168185614831</v>
+        <v>0.1415729029768686</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1422857053584974</v>
+        <v>-0.1472690498965354</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.330613791323685</v>
       </c>
       <c r="E99" t="n">
-        <v>1.24935182035708</v>
+        <v>1.253940086095671</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1684335392818649</v>
+        <v>0.15069906584217</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1587279090996044</v>
+        <v>-0.1615532734223391</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3401578342139607</v>
       </c>
       <c r="E100" t="n">
-        <v>1.123247704434954</v>
+        <v>1.124691079969186</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1911308950110208</v>
+        <v>0.1664707374376029</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1659337686369189</v>
+        <v>-0.1687008942521655</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3380786706109983</v>
       </c>
       <c r="E101" t="n">
-        <v>1.00673093898067</v>
+        <v>1.015531279887863</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2006584327522539</v>
+        <v>0.1790628904080084</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1892213815365626</v>
+        <v>-0.1926653353739685</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3196777139327901</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8930914804801247</v>
+        <v>0.8984053690336358</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2050530941389254</v>
+        <v>0.171899529386969</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1976077554148527</v>
+        <v>-0.1924339545631373</v>
       </c>
     </row>
   </sheetData>
